--- a/nr-test-ml-datatypes/ig/StructureDefinition-mos-identifiant.xlsx
+++ b/nr-test-ml-datatypes/ig/StructureDefinition-mos-identifiant.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="83">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T08:38:31+00:00</t>
+    <t>2025-08-11T09:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -254,7 +254,11 @@
 </t>
   </si>
   <si>
-    <t>Chaine de caractère de la date</t>
+    <t>Chaine de caractère de la date (Format YY-MM-DD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-date-format:Doit respecter le format YY-MM-DD {$this.matches('^[0-9]{2}-(0[1-9]|1[0-2])-([0-2][0-9]|3[01])$')}
+</t>
   </si>
   <si>
     <t>mos-identifiant.value</t>
@@ -918,15 +922,15 @@
         <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -952,10 +956,10 @@
         <v>78</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1006,7 +1010,7 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>

--- a/nr-test-ml-datatypes/ig/StructureDefinition-mos-identifiant.xlsx
+++ b/nr-test-ml-datatypes/ig/StructureDefinition-mos-identifiant.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T09:04:25+00:00</t>
+    <t>2025-08-11T09:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t>Chaine de caractère de la date (Format YY-MM-DD)</t>
+    <t>Date de mise en place de l'identifiant (Format YY-MM-DD)</t>
   </si>
   <si>
     <t xml:space="preserve">inv-date-format:Doit respecter le format YY-MM-DD {$this.matches('^[0-9]{2}-(0[1-9]|1[0-2])-([0-2][0-9]|3[01])$')}
